--- a/data/pca/factorExposure/factorExposure_2018-08-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03637754456216294</v>
+        <v>-0.03268868867698303</v>
       </c>
       <c r="C2">
-        <v>-0.04605275496247584</v>
+        <v>-0.01388266348818087</v>
       </c>
       <c r="D2">
-        <v>0.03985888430035459</v>
+        <v>0.01140128466566363</v>
       </c>
       <c r="E2">
-        <v>0.04788935062564758</v>
+        <v>-0.01563815281852629</v>
       </c>
       <c r="F2">
-        <v>0.1438934748314825</v>
+        <v>-0.02130135907118102</v>
       </c>
       <c r="G2">
-        <v>-0.05210942335550017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08357996944083397</v>
+      </c>
+      <c r="H2">
+        <v>0.01843668928317736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1193569543925259</v>
+        <v>-0.08281545819503924</v>
       </c>
       <c r="C3">
-        <v>-0.01078649259868605</v>
+        <v>0.01495655214258377</v>
       </c>
       <c r="D3">
-        <v>0.04440931689682785</v>
+        <v>0.01655992562523698</v>
       </c>
       <c r="E3">
-        <v>0.09165097717664131</v>
+        <v>-0.008551097814533809</v>
       </c>
       <c r="F3">
-        <v>0.3976152786712251</v>
+        <v>0.01261615240657303</v>
       </c>
       <c r="G3">
-        <v>-0.156237546900063</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2750353498559273</v>
+      </c>
+      <c r="H3">
+        <v>0.03675798338030477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05276894920772186</v>
+        <v>-0.05041319674286412</v>
       </c>
       <c r="C4">
-        <v>-0.03898818618725266</v>
+        <v>-0.002466048055605403</v>
       </c>
       <c r="D4">
-        <v>-0.0004005671470809314</v>
+        <v>0.03059507999900875</v>
       </c>
       <c r="E4">
-        <v>0.06458883282227776</v>
+        <v>0.02096789609566141</v>
       </c>
       <c r="F4">
-        <v>0.07115802493960428</v>
+        <v>-0.05778682921960807</v>
       </c>
       <c r="G4">
-        <v>-0.04687447224583002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.05102556823665597</v>
+      </c>
+      <c r="H4">
+        <v>0.02609623528697306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01266159311002061</v>
+        <v>-0.03082128012562561</v>
       </c>
       <c r="C6">
-        <v>0.001496437118431629</v>
+        <v>-0.002542550901579384</v>
       </c>
       <c r="D6">
-        <v>0.01569852294988171</v>
+        <v>0.03952105358298558</v>
       </c>
       <c r="E6">
-        <v>0.02191412542108976</v>
+        <v>0.005580317449965662</v>
       </c>
       <c r="F6">
-        <v>0.01173452669950294</v>
+        <v>-0.03694811397240313</v>
       </c>
       <c r="G6">
-        <v>0.004060096269855619</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01474180221675027</v>
+      </c>
+      <c r="H6">
+        <v>0.05265659146273698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02715788015293959</v>
+        <v>-0.02156253804243057</v>
       </c>
       <c r="C7">
-        <v>-0.0175360637511589</v>
+        <v>-0.002275311949811319</v>
       </c>
       <c r="D7">
-        <v>0.03137054909203506</v>
+        <v>0.01798367602587152</v>
       </c>
       <c r="E7">
-        <v>0.03731063741472352</v>
+        <v>0.03559204459259042</v>
       </c>
       <c r="F7">
-        <v>0.06133097667064884</v>
+        <v>-0.02185287339195052</v>
       </c>
       <c r="G7">
-        <v>-0.0576237094503334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03868169181138183</v>
+      </c>
+      <c r="H7">
+        <v>0.0150109428315281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01553581108827633</v>
+        <v>-0.006204359780421465</v>
       </c>
       <c r="C8">
-        <v>-0.0164846544512668</v>
+        <v>0.002600129942803731</v>
       </c>
       <c r="D8">
-        <v>-7.74833707379397e-05</v>
+        <v>0.007664407151775904</v>
       </c>
       <c r="E8">
-        <v>0.07080061959841934</v>
+        <v>0.01108199592340456</v>
       </c>
       <c r="F8">
-        <v>0.08633361013572072</v>
+        <v>-0.02724099150769954</v>
       </c>
       <c r="G8">
-        <v>-0.06630869873311768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05750531733727566</v>
+      </c>
+      <c r="H8">
+        <v>0.006117643743490043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04299044993613454</v>
+        <v>-0.04138569302978334</v>
       </c>
       <c r="C9">
-        <v>-0.03053345344855736</v>
+        <v>0.001514752692310588</v>
       </c>
       <c r="D9">
-        <v>-0.0106413930982816</v>
+        <v>0.02561357619083247</v>
       </c>
       <c r="E9">
-        <v>0.06876230132263639</v>
+        <v>0.01805349442038552</v>
       </c>
       <c r="F9">
-        <v>0.0673791479062447</v>
+        <v>-0.0356291748442867</v>
       </c>
       <c r="G9">
-        <v>-0.04826871974739251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06191445072503943</v>
+      </c>
+      <c r="H9">
+        <v>0.0247737699890369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.0515316717053696</v>
+        <v>-0.09697004369674099</v>
       </c>
       <c r="C10">
-        <v>-0.04153787328287115</v>
+        <v>0.03331399445659165</v>
       </c>
       <c r="D10">
-        <v>-0.02027339970038912</v>
+        <v>-0.1457916946116323</v>
       </c>
       <c r="E10">
-        <v>-0.1151917309319058</v>
+        <v>-0.02015783280152801</v>
       </c>
       <c r="F10">
-        <v>0.07725591183728141</v>
+        <v>0.0705967370369463</v>
       </c>
       <c r="G10">
-        <v>0.0451567636354394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02429416374810556</v>
+      </c>
+      <c r="H10">
+        <v>0.003439816153653129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03392167091303006</v>
+        <v>-0.02355998068538984</v>
       </c>
       <c r="C11">
-        <v>-0.01285701283119596</v>
+        <v>0.008798945857349239</v>
       </c>
       <c r="D11">
-        <v>0.01875672295959457</v>
+        <v>0.03330403352442363</v>
       </c>
       <c r="E11">
-        <v>0.0370602855770204</v>
+        <v>-0.003437113387468124</v>
       </c>
       <c r="F11">
-        <v>0.03388326536916957</v>
+        <v>-0.02181972804626031</v>
       </c>
       <c r="G11">
-        <v>-0.02381063612821854</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03588379576534444</v>
+      </c>
+      <c r="H11">
+        <v>0.02694550512025111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04116568185136051</v>
+        <v>-0.03221685181871637</v>
       </c>
       <c r="C12">
-        <v>-0.01433970213837693</v>
+        <v>0.007299247545776258</v>
       </c>
       <c r="D12">
-        <v>0.004781453199341792</v>
+        <v>0.0325086917689815</v>
       </c>
       <c r="E12">
-        <v>0.04473979944802581</v>
+        <v>0.008020340275788698</v>
       </c>
       <c r="F12">
-        <v>0.01565599754198231</v>
+        <v>-0.0254456677753632</v>
       </c>
       <c r="G12">
-        <v>-0.0192031416970013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01321280204163798</v>
+      </c>
+      <c r="H12">
+        <v>0.01377767318914664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01924200134908359</v>
+        <v>-0.02798697021065214</v>
       </c>
       <c r="C13">
-        <v>-0.02402089682848975</v>
+        <v>-0.0121976282251822</v>
       </c>
       <c r="D13">
-        <v>0.03550443782538502</v>
+        <v>0.003355939920716438</v>
       </c>
       <c r="E13">
-        <v>0.01971792602290275</v>
+        <v>-0.01749617460741156</v>
       </c>
       <c r="F13">
-        <v>0.09001505069497223</v>
+        <v>-0.0214626672818232</v>
       </c>
       <c r="G13">
-        <v>-0.03492336385172049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06823643656607552</v>
+      </c>
+      <c r="H13">
+        <v>0.0244935864988184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01088102148192722</v>
+        <v>-0.01659920394294833</v>
       </c>
       <c r="C14">
-        <v>-0.01780067718811225</v>
+        <v>0.0001110060890461717</v>
       </c>
       <c r="D14">
-        <v>0.005084652690078253</v>
+        <v>0.003336522470370034</v>
       </c>
       <c r="E14">
-        <v>0.04060915280374836</v>
+        <v>0.008366138553946917</v>
       </c>
       <c r="F14">
-        <v>0.06143500356317453</v>
+        <v>-0.02412164091635324</v>
       </c>
       <c r="G14">
-        <v>-0.06254764566152177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04521149835738918</v>
+      </c>
+      <c r="H14">
+        <v>-0.0190702157758423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02546711460982945</v>
+        <v>-0.02485787948387784</v>
       </c>
       <c r="C16">
-        <v>-0.0145543817388229</v>
+        <v>0.009398043908891193</v>
       </c>
       <c r="D16">
-        <v>0.01514990885003062</v>
+        <v>0.0282233187607458</v>
       </c>
       <c r="E16">
-        <v>0.03446387393893607</v>
+        <v>0.001246434210166867</v>
       </c>
       <c r="F16">
-        <v>0.03787467826664932</v>
+        <v>-0.02385702985428708</v>
       </c>
       <c r="G16">
-        <v>-0.02637730057875196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.03182177538325154</v>
+      </c>
+      <c r="H16">
+        <v>0.02106665283957978</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03868935726755956</v>
+        <v>-0.03591547474112088</v>
       </c>
       <c r="C19">
-        <v>-0.01480948026532549</v>
+        <v>0.001547843818717523</v>
       </c>
       <c r="D19">
-        <v>0.01934643649288766</v>
+        <v>0.01161204626688006</v>
       </c>
       <c r="E19">
-        <v>0.05368106998057284</v>
+        <v>-0.001083851714401707</v>
       </c>
       <c r="F19">
-        <v>0.1019422774680338</v>
+        <v>-0.03137626550648064</v>
       </c>
       <c r="G19">
-        <v>-0.04721806611166583</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.07275372845467017</v>
+      </c>
+      <c r="H19">
+        <v>0.03557644942399363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003176180426831778</v>
+        <v>-0.009694448603278982</v>
       </c>
       <c r="C20">
-        <v>-0.02475344544885577</v>
+        <v>-0.006133623843508294</v>
       </c>
       <c r="D20">
-        <v>0.01107203790923504</v>
+        <v>0.001325662279711794</v>
       </c>
       <c r="E20">
-        <v>0.03543077063304797</v>
+        <v>7.253109811793593e-06</v>
       </c>
       <c r="F20">
-        <v>0.06228597872200323</v>
+        <v>-0.01871938129279735</v>
       </c>
       <c r="G20">
-        <v>-0.06489450943690872</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05294056920730119</v>
+      </c>
+      <c r="H20">
+        <v>-0.01058581237981768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.001466619334237135</v>
+        <v>-0.02394945837951918</v>
       </c>
       <c r="C21">
-        <v>0.002584137026940824</v>
+        <v>-0.004896937672131811</v>
       </c>
       <c r="D21">
-        <v>0.006759886707237216</v>
+        <v>0.003355541437100661</v>
       </c>
       <c r="E21">
-        <v>0.03873116203426756</v>
+        <v>0.01150006133442318</v>
       </c>
       <c r="F21">
-        <v>0.06492161371032558</v>
+        <v>-0.009295575526580288</v>
       </c>
       <c r="G21">
-        <v>-0.02896606377313713</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05650744970844108</v>
+      </c>
+      <c r="H21">
+        <v>0.008351907584840994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02976388510814806</v>
+        <v>-0.02297121427661317</v>
       </c>
       <c r="C24">
-        <v>-0.01562740937806487</v>
+        <v>0.003897455869347279</v>
       </c>
       <c r="D24">
-        <v>0.01187131946857571</v>
+        <v>0.02931081351446354</v>
       </c>
       <c r="E24">
-        <v>0.02671166002664494</v>
+        <v>0.001460803469276898</v>
       </c>
       <c r="F24">
-        <v>0.03582955482692931</v>
+        <v>-0.01961536237474728</v>
       </c>
       <c r="G24">
-        <v>-0.01843136005326946</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02998558024301573</v>
+      </c>
+      <c r="H24">
+        <v>0.02570889120916507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03288656245472724</v>
+        <v>-0.03464432211489994</v>
       </c>
       <c r="C25">
-        <v>-0.009724016977068933</v>
+        <v>0.002701315632040333</v>
       </c>
       <c r="D25">
-        <v>0.01012914808234402</v>
+        <v>0.02581478672089492</v>
       </c>
       <c r="E25">
-        <v>0.03845482774973166</v>
+        <v>0.002049160852669661</v>
       </c>
       <c r="F25">
-        <v>0.03256469345515552</v>
+        <v>-0.02331494262673562</v>
       </c>
       <c r="G25">
-        <v>-0.008744432832179544</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03342379826819675</v>
+      </c>
+      <c r="H25">
+        <v>0.028549448755004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01893568808230759</v>
+        <v>-0.01962301236565617</v>
       </c>
       <c r="C26">
-        <v>0.00299402924222965</v>
+        <v>-0.01721713260064037</v>
       </c>
       <c r="D26">
-        <v>0.03750347080741528</v>
+        <v>0.004570066901029593</v>
       </c>
       <c r="E26">
-        <v>0.03993808889682385</v>
+        <v>-0.00671776582509649</v>
       </c>
       <c r="F26">
-        <v>0.05611746706172676</v>
+        <v>-0.004672412926909284</v>
       </c>
       <c r="G26">
-        <v>-0.03375726152596541</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.0384290765624364</v>
+      </c>
+      <c r="H26">
+        <v>-0.00367912503731973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07282434558438688</v>
+        <v>-0.03089382178250264</v>
       </c>
       <c r="C27">
-        <v>-0.05348142055228149</v>
+        <v>0.01229746652593271</v>
       </c>
       <c r="D27">
-        <v>0.002099016142889068</v>
+        <v>0.01091463806917959</v>
       </c>
       <c r="E27">
-        <v>0.05436357202404918</v>
+        <v>0.005330033679059809</v>
       </c>
       <c r="F27">
-        <v>0.05391241477562883</v>
+        <v>-0.02687841958991085</v>
       </c>
       <c r="G27">
-        <v>-0.05627591519033397</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02783688968074147</v>
+      </c>
+      <c r="H27">
+        <v>-0.002018347596131934</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07656478328742733</v>
+        <v>-0.1471392005217217</v>
       </c>
       <c r="C28">
-        <v>-0.06000854715875881</v>
+        <v>0.03704639371492684</v>
       </c>
       <c r="D28">
-        <v>-0.04258173008736164</v>
+        <v>-0.2178369337353228</v>
       </c>
       <c r="E28">
-        <v>-0.1749993079478881</v>
+        <v>-0.02431285263045473</v>
       </c>
       <c r="F28">
-        <v>0.09895638497258306</v>
+        <v>0.09440311756410436</v>
       </c>
       <c r="G28">
-        <v>0.02479459598868412</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01005114100828623</v>
+      </c>
+      <c r="H28">
+        <v>-0.01259595714579289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01930404202440028</v>
+        <v>-0.0220218006868248</v>
       </c>
       <c r="C29">
-        <v>-0.02064467069323776</v>
+        <v>0.002472975393080378</v>
       </c>
       <c r="D29">
-        <v>-0.002369137276031755</v>
+        <v>0.004795038836529891</v>
       </c>
       <c r="E29">
-        <v>0.0585434417885415</v>
+        <v>0.01016826313005142</v>
       </c>
       <c r="F29">
-        <v>0.04345725177152196</v>
+        <v>-0.02630745187411277</v>
       </c>
       <c r="G29">
-        <v>-0.06153919836328393</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03786932240458225</v>
+      </c>
+      <c r="H29">
+        <v>-0.02035999314936354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.08551832406515888</v>
+        <v>-0.05597311822153321</v>
       </c>
       <c r="C30">
-        <v>-0.05728158960649284</v>
+        <v>-0.002516963453786621</v>
       </c>
       <c r="D30">
-        <v>0.0415219320168954</v>
+        <v>0.05775747485196941</v>
       </c>
       <c r="E30">
-        <v>0.08332604253690855</v>
+        <v>-0.03438876722553508</v>
       </c>
       <c r="F30">
-        <v>0.0534574853521383</v>
+        <v>-0.07214809412071298</v>
       </c>
       <c r="G30">
-        <v>-0.04755385029708067</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06588505288774589</v>
+      </c>
+      <c r="H30">
+        <v>0.03534645701751483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06145622520307912</v>
+        <v>-0.05530098411911077</v>
       </c>
       <c r="C31">
-        <v>-0.0167298815629225</v>
+        <v>0.01524172347985661</v>
       </c>
       <c r="D31">
-        <v>0.05066849751992705</v>
+        <v>0.0255481781713001</v>
       </c>
       <c r="E31">
-        <v>0.03333544886220322</v>
+        <v>-0.008959092244582955</v>
       </c>
       <c r="F31">
-        <v>0.03615033368262729</v>
+        <v>-0.01984379282801854</v>
       </c>
       <c r="G31">
-        <v>-0.07966369835552994</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02446093134372057</v>
+      </c>
+      <c r="H31">
+        <v>-0.01614504253470802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02111241322364175</v>
+        <v>-0.01580880899382713</v>
       </c>
       <c r="C32">
-        <v>-0.03028431425307583</v>
+        <v>0.01672355329312517</v>
       </c>
       <c r="D32">
-        <v>0.005257555464312141</v>
+        <v>-0.008119635447914978</v>
       </c>
       <c r="E32">
-        <v>0.07018282927248044</v>
+        <v>0.01658345131011841</v>
       </c>
       <c r="F32">
-        <v>0.05949846499555873</v>
+        <v>-0.04681341207441469</v>
       </c>
       <c r="G32">
-        <v>-0.04859395324450105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.05757079203348918</v>
+      </c>
+      <c r="H32">
+        <v>0.04130775188111679</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05281867413297833</v>
+        <v>-0.04054939947815735</v>
       </c>
       <c r="C33">
-        <v>-0.003613904055487451</v>
+        <v>0.001514593572216596</v>
       </c>
       <c r="D33">
-        <v>0.05010048318833594</v>
+        <v>0.03098515163262498</v>
       </c>
       <c r="E33">
-        <v>0.0729889257583733</v>
+        <v>-0.02347712847434901</v>
       </c>
       <c r="F33">
-        <v>0.09032244281534423</v>
+        <v>-0.01397408972157656</v>
       </c>
       <c r="G33">
-        <v>-0.05198184931691183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.06482728805866853</v>
+      </c>
+      <c r="H33">
+        <v>0.01501300811736736</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03163498152967274</v>
+        <v>-0.02714021700030866</v>
       </c>
       <c r="C34">
-        <v>-0.01649437371147508</v>
+        <v>0.01707594924106609</v>
       </c>
       <c r="D34">
-        <v>0.01474971406797599</v>
+        <v>0.03009284462460424</v>
       </c>
       <c r="E34">
-        <v>0.04410303239069682</v>
+        <v>0.006591851600418867</v>
       </c>
       <c r="F34">
-        <v>0.03689659558027868</v>
+        <v>-0.024276690160333</v>
       </c>
       <c r="G34">
-        <v>-0.01744094187049255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02782134408697433</v>
+      </c>
+      <c r="H34">
+        <v>0.02427295523761213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01328735138482417</v>
+        <v>-0.02147817748353942</v>
       </c>
       <c r="C36">
-        <v>-0.01032016872021207</v>
+        <v>-0.003072227295263927</v>
       </c>
       <c r="D36">
-        <v>0.003870521056550578</v>
+        <v>-0.002484932811637247</v>
       </c>
       <c r="E36">
-        <v>0.02864206004751848</v>
+        <v>0.001765377064155656</v>
       </c>
       <c r="F36">
-        <v>0.02304007425327073</v>
+        <v>-0.008223549714916237</v>
       </c>
       <c r="G36">
-        <v>-0.0362250157079732</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02107434317192959</v>
+      </c>
+      <c r="H36">
+        <v>-0.004308729023891685</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0004935355199498138</v>
+        <v>-0.02151815578419816</v>
       </c>
       <c r="C38">
-        <v>0.005859408817939422</v>
+        <v>0.01665166658286467</v>
       </c>
       <c r="D38">
-        <v>-0.01441356742345587</v>
+        <v>-0.002088791766828802</v>
       </c>
       <c r="E38">
-        <v>-0.002038289060356177</v>
+        <v>0.003944965463394253</v>
       </c>
       <c r="F38">
-        <v>0.0161329085011849</v>
+        <v>-0.00982725921663471</v>
       </c>
       <c r="G38">
-        <v>0.01574904158489111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.03095918733670881</v>
+      </c>
+      <c r="H38">
+        <v>0.02085207319530161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03934157183095609</v>
+        <v>-0.02322020700383122</v>
       </c>
       <c r="C39">
-        <v>-0.02096695517666274</v>
+        <v>0.001272088914280132</v>
       </c>
       <c r="D39">
-        <v>0.03479584036064851</v>
+        <v>0.06862110720016254</v>
       </c>
       <c r="E39">
-        <v>0.04624684753422854</v>
+        <v>-0.001120832773347831</v>
       </c>
       <c r="F39">
-        <v>0.0459275981068975</v>
+        <v>-0.04054044188784646</v>
       </c>
       <c r="G39">
-        <v>-0.02285746653624854</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05540761024491348</v>
+      </c>
+      <c r="H39">
+        <v>0.05017151093312594</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02908260541102341</v>
+        <v>-0.03510992780002834</v>
       </c>
       <c r="C40">
-        <v>-0.0445245865670492</v>
+        <v>0.002879006238037554</v>
       </c>
       <c r="D40">
-        <v>0.05863756042209202</v>
+        <v>0.01346544603382499</v>
       </c>
       <c r="E40">
-        <v>0.03543100776200128</v>
+        <v>-0.0218394602001279</v>
       </c>
       <c r="F40">
-        <v>0.08654228431400654</v>
+        <v>-0.03447716468719551</v>
       </c>
       <c r="G40">
-        <v>-0.04949483660558811</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.05164449235147073</v>
+      </c>
+      <c r="H40">
+        <v>0.04523006026246469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.001813758955133733</v>
+        <v>-0.01065892260996242</v>
       </c>
       <c r="C41">
-        <v>0.00769142457901931</v>
+        <v>-0.000210860408546717</v>
       </c>
       <c r="D41">
-        <v>0.007381022396462437</v>
+        <v>-0.009260328027991113</v>
       </c>
       <c r="E41">
-        <v>0.01620454179709416</v>
+        <v>-0.002961678231312397</v>
       </c>
       <c r="F41">
-        <v>0.01262168323239373</v>
+        <v>0.002881217358854388</v>
       </c>
       <c r="G41">
-        <v>-0.05555502879079507</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.009684816234029345</v>
+      </c>
+      <c r="H41">
+        <v>-0.01699408840410666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3777818280048203</v>
+        <v>-0.1889892535741497</v>
       </c>
       <c r="C42">
-        <v>0.8841092249333682</v>
+        <v>-0.105367430204026</v>
       </c>
       <c r="D42">
-        <v>0.1772573180873526</v>
+        <v>0.5356013451739176</v>
       </c>
       <c r="E42">
-        <v>-0.1147988956524091</v>
+        <v>-0.1188234740589312</v>
       </c>
       <c r="F42">
-        <v>-0.04285929600241352</v>
+        <v>0.7917752457399907</v>
       </c>
       <c r="G42">
-        <v>-0.01752330642074051</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.08520117609783458</v>
+      </c>
+      <c r="H42">
+        <v>0.0187942274164208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.007162700709577464</v>
+        <v>-0.01039244102309432</v>
       </c>
       <c r="C43">
-        <v>0.003895937509173529</v>
+        <v>-0.001633179887165359</v>
       </c>
       <c r="D43">
-        <v>0.01028826663360158</v>
+        <v>-0.01277843107708168</v>
       </c>
       <c r="E43">
-        <v>0.01943208137616333</v>
+        <v>-0.007988720153378686</v>
       </c>
       <c r="F43">
-        <v>0.033414890465258</v>
+        <v>0.007778600295503801</v>
       </c>
       <c r="G43">
-        <v>-0.05024555083103646</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01860927361649156</v>
+      </c>
+      <c r="H43">
+        <v>-0.009493657004883031</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01811408689333379</v>
+        <v>-0.01643270408409583</v>
       </c>
       <c r="C44">
-        <v>-0.0002520845697866445</v>
+        <v>0.001068570234504113</v>
       </c>
       <c r="D44">
-        <v>0.02810862028393513</v>
+        <v>0.02221299894003018</v>
       </c>
       <c r="E44">
-        <v>0.06802563983121167</v>
+        <v>0.0004026246556734404</v>
       </c>
       <c r="F44">
-        <v>0.1713944197169447</v>
+        <v>-0.004210763046185429</v>
       </c>
       <c r="G44">
-        <v>-0.1588369525977512</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.09051477877104006</v>
+      </c>
+      <c r="H44">
+        <v>0.01338556525820103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01931548663570143</v>
+        <v>-0.02195514386152988</v>
       </c>
       <c r="C46">
-        <v>-0.01978133302369125</v>
+        <v>-0.001422417699962496</v>
       </c>
       <c r="D46">
-        <v>0.02331310070798474</v>
+        <v>0.008790843954132575</v>
       </c>
       <c r="E46">
-        <v>0.06747258192586382</v>
+        <v>-0.00165930520283207</v>
       </c>
       <c r="F46">
-        <v>0.06726567012433549</v>
+        <v>-0.03124589583733779</v>
       </c>
       <c r="G46">
-        <v>-0.05787143406265069</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05818534872627246</v>
+      </c>
+      <c r="H46">
+        <v>-0.01499221848905271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09516780413123303</v>
+        <v>-0.07724856481565798</v>
       </c>
       <c r="C47">
-        <v>-0.03527562411683252</v>
+        <v>0.03148940416347646</v>
       </c>
       <c r="D47">
-        <v>0.02636755342144605</v>
+        <v>0.03300183276964471</v>
       </c>
       <c r="E47">
-        <v>0.03605509528524123</v>
+        <v>-0.004268068125382046</v>
       </c>
       <c r="F47">
-        <v>0.00202278755475636</v>
+        <v>-0.03124897679053876</v>
       </c>
       <c r="G47">
-        <v>-0.09039619953928435</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008963498807297935</v>
+      </c>
+      <c r="H47">
+        <v>-0.03084588028897528</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01367391063639547</v>
+        <v>-0.02190398682042053</v>
       </c>
       <c r="C48">
-        <v>-0.004702376609486153</v>
+        <v>0.00685852760965413</v>
       </c>
       <c r="D48">
-        <v>0.01836404138055008</v>
+        <v>0.00454872310993377</v>
       </c>
       <c r="E48">
-        <v>0.03901876044693485</v>
+        <v>-0.002421048994935723</v>
       </c>
       <c r="F48">
-        <v>0.03693579058178141</v>
+        <v>-0.01116762700005729</v>
       </c>
       <c r="G48">
-        <v>-0.02003844497266361</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02837916743855873</v>
+      </c>
+      <c r="H48">
+        <v>-0.001440461253005602</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08901207497004554</v>
+        <v>-0.07052244978557558</v>
       </c>
       <c r="C50">
-        <v>-0.01827189323173983</v>
+        <v>0.02616162829447206</v>
       </c>
       <c r="D50">
-        <v>0.04012676240652159</v>
+        <v>0.04244844210777834</v>
       </c>
       <c r="E50">
-        <v>0.05439830918679019</v>
+        <v>0.009723908021798131</v>
       </c>
       <c r="F50">
-        <v>0.02307687219327937</v>
+        <v>-0.02680484784160759</v>
       </c>
       <c r="G50">
-        <v>-0.04156175359016839</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02561482480755703</v>
+      </c>
+      <c r="H50">
+        <v>-0.02700634568309418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02275060192892365</v>
+        <v>-0.02259225888043013</v>
       </c>
       <c r="C51">
-        <v>-0.01564211150408617</v>
+        <v>0.0008311290528388402</v>
       </c>
       <c r="D51">
-        <v>0.0248343805332393</v>
+        <v>-0.009101736053511498</v>
       </c>
       <c r="E51">
-        <v>0.019074476329712</v>
+        <v>-0.008012254396909113</v>
       </c>
       <c r="F51">
-        <v>0.1451681698522322</v>
+        <v>0.002129220242995346</v>
       </c>
       <c r="G51">
-        <v>-0.0522060678044288</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0750578506341822</v>
+      </c>
+      <c r="H51">
+        <v>0.02378563357856793</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1030431820587277</v>
+        <v>-0.09563792239627858</v>
       </c>
       <c r="C53">
-        <v>-0.04923924271089709</v>
+        <v>0.03842197251721426</v>
       </c>
       <c r="D53">
-        <v>0.04393555258417789</v>
+        <v>0.06294779498157517</v>
       </c>
       <c r="E53">
-        <v>0.04272796813636284</v>
+        <v>-0.0005163438951555791</v>
       </c>
       <c r="F53">
-        <v>-0.0548981998794814</v>
+        <v>-0.06342134184954705</v>
       </c>
       <c r="G53">
-        <v>-0.03402163367113108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05673569264558028</v>
+      </c>
+      <c r="H53">
+        <v>-0.03476812912281969</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01551106714416595</v>
+        <v>-0.02479774116420684</v>
       </c>
       <c r="C54">
-        <v>-0.03025612635863744</v>
+        <v>0.01286732159629773</v>
       </c>
       <c r="D54">
-        <v>0.002402123476931365</v>
+        <v>-0.0205012829575983</v>
       </c>
       <c r="E54">
-        <v>0.03278641158433375</v>
+        <v>0.003650741330564443</v>
       </c>
       <c r="F54">
-        <v>0.06481304856801455</v>
+        <v>-0.01156398441821233</v>
       </c>
       <c r="G54">
-        <v>-0.07330813310508337</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03793474043272261</v>
+      </c>
+      <c r="H54">
+        <v>-0.01582034934898668</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1000611662382839</v>
+        <v>-0.08174544647873488</v>
       </c>
       <c r="C55">
-        <v>-0.03519777315238094</v>
+        <v>0.03383025685459715</v>
       </c>
       <c r="D55">
-        <v>0.004933913261834302</v>
+        <v>0.06183373737812642</v>
       </c>
       <c r="E55">
-        <v>0.05093020053004495</v>
+        <v>0.01087649981130316</v>
       </c>
       <c r="F55">
-        <v>-0.04796973031251672</v>
+        <v>-0.05353174352864314</v>
       </c>
       <c r="G55">
-        <v>-0.07240432457965204</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03583933991716273</v>
+      </c>
+      <c r="H55">
+        <v>-0.04645089527429896</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1437410042600821</v>
+        <v>-0.1309692480057104</v>
       </c>
       <c r="C56">
-        <v>-0.08464406291333533</v>
+        <v>0.05877777981017372</v>
       </c>
       <c r="D56">
-        <v>0.02802335040663662</v>
+        <v>0.08226799452986822</v>
       </c>
       <c r="E56">
-        <v>0.05127258442560965</v>
+        <v>0.004294947169692363</v>
       </c>
       <c r="F56">
-        <v>-0.1628786369222262</v>
+        <v>-0.09124760919837903</v>
       </c>
       <c r="G56">
-        <v>-0.006428270499733316</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1022173163781105</v>
+      </c>
+      <c r="H56">
+        <v>-0.02843724978338085</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04394714420190132</v>
+        <v>-0.04350784162082987</v>
       </c>
       <c r="C57">
-        <v>-0.0115401568464976</v>
+        <v>-0.008299542806898133</v>
       </c>
       <c r="D57">
-        <v>0.03625110699071465</v>
+        <v>0.0219399044962331</v>
       </c>
       <c r="E57">
-        <v>0.01090607772386398</v>
+        <v>-0.01033309542540888</v>
       </c>
       <c r="F57">
-        <v>0.07583354437704015</v>
+        <v>-0.0235759767075032</v>
       </c>
       <c r="G57">
-        <v>-0.04024050544024656</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06222703618595435</v>
+      </c>
+      <c r="H57">
+        <v>0.008929504995889728</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1911663057832704</v>
+        <v>-0.1472147317541344</v>
       </c>
       <c r="C58">
-        <v>-0.03412560301795689</v>
+        <v>0.04326741314271786</v>
       </c>
       <c r="D58">
-        <v>0.1206651373726414</v>
+        <v>0.1341901524185273</v>
       </c>
       <c r="E58">
-        <v>0.2494974917524801</v>
+        <v>-0.1090044742167805</v>
       </c>
       <c r="F58">
-        <v>0.216512116154759</v>
+        <v>-0.03922504813059164</v>
       </c>
       <c r="G58">
-        <v>0.05275388324488067</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.6675667307936934</v>
+      </c>
+      <c r="H58">
+        <v>-0.5562513803115536</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.07208437221249252</v>
+        <v>-0.1488698179137586</v>
       </c>
       <c r="C59">
-        <v>-0.08074931416722796</v>
+        <v>0.04370541152663007</v>
       </c>
       <c r="D59">
-        <v>-0.02837545271496024</v>
+        <v>-0.2141749505612651</v>
       </c>
       <c r="E59">
-        <v>-0.1403301597322018</v>
+        <v>-0.04167851846035899</v>
       </c>
       <c r="F59">
-        <v>0.09547886726575366</v>
+        <v>0.07497811626355209</v>
       </c>
       <c r="G59">
-        <v>0.03627701222504312</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01863402155159878</v>
+      </c>
+      <c r="H59">
+        <v>0.02004062518961453</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1686788282926518</v>
+        <v>-0.1721830332904957</v>
       </c>
       <c r="C60">
-        <v>-0.06244841804911649</v>
+        <v>0.04017702606293366</v>
       </c>
       <c r="D60">
-        <v>0.07746055216326303</v>
+        <v>0.01625286268381709</v>
       </c>
       <c r="E60">
-        <v>0.05077702347522581</v>
+        <v>-0.0541294746215012</v>
       </c>
       <c r="F60">
-        <v>0.1370827048800569</v>
+        <v>-0.05687008375416608</v>
       </c>
       <c r="G60">
-        <v>0.3256926891392068</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1363742092856232</v>
+      </c>
+      <c r="H60">
+        <v>0.3741535990532955</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02066505807494221</v>
+        <v>-0.02376094270781139</v>
       </c>
       <c r="C61">
-        <v>-0.006915581422120423</v>
+        <v>0.006772748050712316</v>
       </c>
       <c r="D61">
-        <v>0.01058214563313949</v>
+        <v>0.03657923197401101</v>
       </c>
       <c r="E61">
-        <v>0.02622202281853253</v>
+        <v>0.003374508099897127</v>
       </c>
       <c r="F61">
-        <v>0.02341842606288044</v>
+        <v>-0.02762425163436349</v>
       </c>
       <c r="G61">
-        <v>-0.02423493072299395</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03232919593374957</v>
+      </c>
+      <c r="H61">
+        <v>0.03728523033457735</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01629506742081159</v>
+        <v>-0.01453725462559345</v>
       </c>
       <c r="C63">
-        <v>-0.009078021157744703</v>
+        <v>-0.001251942549946775</v>
       </c>
       <c r="D63">
-        <v>0.01526701402834194</v>
+        <v>0.007343271079631304</v>
       </c>
       <c r="E63">
-        <v>0.03939705414012611</v>
+        <v>0.002370696986555793</v>
       </c>
       <c r="F63">
-        <v>0.008293076302312871</v>
+        <v>-0.01838584459754464</v>
       </c>
       <c r="G63">
-        <v>-0.04363241107201742</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.0155114332114465</v>
+      </c>
+      <c r="H63">
+        <v>-0.01260733188745898</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03704908179480145</v>
+        <v>-0.04471888246754895</v>
       </c>
       <c r="C64">
-        <v>-0.02319840997563169</v>
+        <v>0.01210557390096282</v>
       </c>
       <c r="D64">
-        <v>-0.01711800002941374</v>
+        <v>0.0331342566513523</v>
       </c>
       <c r="E64">
-        <v>0.04110710347866024</v>
+        <v>0.01077308167898888</v>
       </c>
       <c r="F64">
-        <v>0.02267298367197211</v>
+        <v>-0.02472198367259378</v>
       </c>
       <c r="G64">
-        <v>-0.06919272236139987</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.02127803252988491</v>
+      </c>
+      <c r="H64">
+        <v>0.02576140225969485</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01311920260857742</v>
+        <v>-0.03620418526467371</v>
       </c>
       <c r="C65">
-        <v>0.002896848030991302</v>
+        <v>-0.002663637865238423</v>
       </c>
       <c r="D65">
-        <v>0.01435433576844808</v>
+        <v>0.04374190738876552</v>
       </c>
       <c r="E65">
-        <v>0.0203189966677107</v>
+        <v>0.006255191395136697</v>
       </c>
       <c r="F65">
-        <v>0.00764119990955225</v>
+        <v>-0.03688866526075698</v>
       </c>
       <c r="G65">
-        <v>0.007834628311048074</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.003847749641989105</v>
+      </c>
+      <c r="H65">
+        <v>0.0598371836324355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03746428949919609</v>
+        <v>-0.02983075288754427</v>
       </c>
       <c r="C66">
-        <v>-0.0250188227169533</v>
+        <v>0.006201527896600787</v>
       </c>
       <c r="D66">
-        <v>0.02833509115245394</v>
+        <v>0.07693670981363272</v>
       </c>
       <c r="E66">
-        <v>0.04852819646643174</v>
+        <v>-0.005603649434779913</v>
       </c>
       <c r="F66">
-        <v>0.03974941106106439</v>
+        <v>-0.05918641306322873</v>
       </c>
       <c r="G66">
-        <v>-0.01106604331190737</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04704214753660397</v>
+      </c>
+      <c r="H66">
+        <v>0.05966408578523602</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01997958194778544</v>
+        <v>-0.04305306107355361</v>
       </c>
       <c r="C67">
-        <v>-0.000460955748155642</v>
+        <v>0.02066013111637121</v>
       </c>
       <c r="D67">
-        <v>-0.01667962502697873</v>
+        <v>-0.00716597072506357</v>
       </c>
       <c r="E67">
-        <v>-0.0201294792863304</v>
+        <v>0.0006412662169949525</v>
       </c>
       <c r="F67">
-        <v>0.02430591150255717</v>
+        <v>-0.01200490570006186</v>
       </c>
       <c r="G67">
-        <v>0.01556262791678134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01967583440887239</v>
+      </c>
+      <c r="H67">
+        <v>0.03223732485225919</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.08264831894901674</v>
+        <v>-0.1486644122555724</v>
       </c>
       <c r="C68">
-        <v>-0.06013554078413478</v>
+        <v>0.02167647839845638</v>
       </c>
       <c r="D68">
-        <v>-0.0442499527660353</v>
+        <v>-0.198994613925207</v>
       </c>
       <c r="E68">
-        <v>-0.1687661967841129</v>
+        <v>-0.03624005579826185</v>
       </c>
       <c r="F68">
-        <v>0.07093508989989468</v>
+        <v>0.09684622252320536</v>
       </c>
       <c r="G68">
-        <v>0.08061430352353068</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01477550385559571</v>
+      </c>
+      <c r="H68">
+        <v>-0.04276341687132368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07140856608226878</v>
+        <v>-0.06247981990610819</v>
       </c>
       <c r="C69">
-        <v>-0.02996210690650987</v>
+        <v>0.0297373007037963</v>
       </c>
       <c r="D69">
-        <v>0.02718425248775539</v>
+        <v>0.03127912507474265</v>
       </c>
       <c r="E69">
-        <v>0.009816298265689957</v>
+        <v>-0.004838093520708846</v>
       </c>
       <c r="F69">
-        <v>0.012071512393611</v>
+        <v>-0.0292852107592852</v>
       </c>
       <c r="G69">
-        <v>-0.08073340120419215</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.001266632044529016</v>
+      </c>
+      <c r="H69">
+        <v>-0.009642631979698019</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1019164672764223</v>
+        <v>-0.1432755151835888</v>
       </c>
       <c r="C71">
-        <v>-0.0626439293303014</v>
+        <v>0.02991974701174068</v>
       </c>
       <c r="D71">
-        <v>-0.02662576750669617</v>
+        <v>-0.185753649740726</v>
       </c>
       <c r="E71">
-        <v>-0.2128948451960132</v>
+        <v>-0.03618670706892782</v>
       </c>
       <c r="F71">
-        <v>0.0901391228232903</v>
+        <v>0.104136836692943</v>
       </c>
       <c r="G71">
-        <v>0.0500673067367536</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01392710739229226</v>
+      </c>
+      <c r="H71">
+        <v>-0.02550587781329112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1078240402205749</v>
+        <v>-0.09045367785940762</v>
       </c>
       <c r="C72">
-        <v>-0.09681681892509753</v>
+        <v>0.04399545441485486</v>
       </c>
       <c r="D72">
-        <v>0.02350954249073121</v>
+        <v>0.06593742665678914</v>
       </c>
       <c r="E72">
-        <v>0.0805072226404011</v>
+        <v>-0.006589286109048738</v>
       </c>
       <c r="F72">
-        <v>0.08746244145314128</v>
+        <v>-0.1067697273397532</v>
       </c>
       <c r="G72">
-        <v>0.1090736679183089</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.09993591220039647</v>
+      </c>
+      <c r="H72">
+        <v>0.1483324014757366</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2465126130878733</v>
+        <v>-0.2400742263125589</v>
       </c>
       <c r="C73">
-        <v>-0.07702457478892123</v>
+        <v>0.05142134608182249</v>
       </c>
       <c r="D73">
-        <v>0.06843970565554598</v>
+        <v>0.05971810281077823</v>
       </c>
       <c r="E73">
-        <v>0.01671946762539098</v>
+        <v>-0.07786472998876542</v>
       </c>
       <c r="F73">
-        <v>0.2114180420618733</v>
+        <v>-0.06770905835858348</v>
       </c>
       <c r="G73">
-        <v>0.4607462839884393</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1863603860987613</v>
+      </c>
+      <c r="H73">
+        <v>0.5069128927562061</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1261859646560329</v>
+        <v>-0.1189829977544464</v>
       </c>
       <c r="C74">
-        <v>-0.04909845395519451</v>
+        <v>0.05297713732891701</v>
       </c>
       <c r="D74">
-        <v>0.03725197636177995</v>
+        <v>0.08227386572865616</v>
       </c>
       <c r="E74">
-        <v>0.02200517995505598</v>
+        <v>-0.004981864851965855</v>
       </c>
       <c r="F74">
-        <v>-0.09487702966277378</v>
+        <v>-0.07643476826681811</v>
       </c>
       <c r="G74">
-        <v>0.02154085106669468</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07588940261995283</v>
+      </c>
+      <c r="H74">
+        <v>-0.007804478389870008</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2135476161005754</v>
+        <v>-0.229871319825946</v>
       </c>
       <c r="C75">
-        <v>-0.1280369600619392</v>
+        <v>0.1045981530924483</v>
       </c>
       <c r="D75">
-        <v>0.06864496533197373</v>
+        <v>0.1300467824737677</v>
       </c>
       <c r="E75">
-        <v>0.06930487261605611</v>
+        <v>-0.0183213439351012</v>
       </c>
       <c r="F75">
-        <v>-0.1709347445662392</v>
+        <v>-0.1532600011744523</v>
       </c>
       <c r="G75">
-        <v>-0.05084447011048238</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1620920690207607</v>
+      </c>
+      <c r="H75">
+        <v>-0.09130956921603989</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2676365624871211</v>
+        <v>-0.2090858138022859</v>
       </c>
       <c r="C76">
-        <v>-0.133940417106674</v>
+        <v>0.09908539836595584</v>
       </c>
       <c r="D76">
-        <v>0.01048339364478557</v>
+        <v>0.1175186579988863</v>
       </c>
       <c r="E76">
-        <v>0.03781719646479757</v>
+        <v>0.02225554550692229</v>
       </c>
       <c r="F76">
-        <v>-0.203355209464526</v>
+        <v>-0.1449657902772633</v>
       </c>
       <c r="G76">
-        <v>-0.0612713493874933</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1756522706629044</v>
+      </c>
+      <c r="H76">
+        <v>-0.09256605369878308</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1395211041328655</v>
+        <v>-0.07477019322929214</v>
       </c>
       <c r="C77">
-        <v>0.0179574615820037</v>
+        <v>0.009964534463921672</v>
       </c>
       <c r="D77">
-        <v>0.06886963267081371</v>
+        <v>0.07355055777723359</v>
       </c>
       <c r="E77">
-        <v>0.1105659461935255</v>
+        <v>-0.01106196207318213</v>
       </c>
       <c r="F77">
-        <v>0.2247704327109498</v>
+        <v>-0.001017252437702014</v>
       </c>
       <c r="G77">
-        <v>-0.1291871044402946</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1309876175697783</v>
+      </c>
+      <c r="H77">
+        <v>-0.06715153809696307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05301906954991004</v>
+        <v>-0.03824452547758498</v>
       </c>
       <c r="C78">
-        <v>-0.01841470132515608</v>
+        <v>0.010989224327807</v>
       </c>
       <c r="D78">
-        <v>0.03908297676043054</v>
+        <v>0.05767524047162776</v>
       </c>
       <c r="E78">
-        <v>0.1062569494060054</v>
+        <v>0.004382658641417367</v>
       </c>
       <c r="F78">
-        <v>0.0343722298500374</v>
+        <v>-0.05046040487475802</v>
       </c>
       <c r="G78">
-        <v>-0.0622710270114796</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.056455160406715</v>
+      </c>
+      <c r="H78">
+        <v>0.02528722030697835</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2163248777536291</v>
+        <v>-0.1657971268345549</v>
       </c>
       <c r="C80">
-        <v>0.1358263982252091</v>
+        <v>0.05098248121987317</v>
       </c>
       <c r="D80">
-        <v>-0.9175623586785112</v>
+        <v>-0.0006526592187526401</v>
       </c>
       <c r="E80">
-        <v>0.2688931513680313</v>
+        <v>0.962989604749466</v>
       </c>
       <c r="F80">
-        <v>0.03755420976157758</v>
+        <v>0.1299798835957678</v>
       </c>
       <c r="G80">
-        <v>0.0320971320615772</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.09571821706266082</v>
+      </c>
+      <c r="H80">
+        <v>0.008177920754170618</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1546229291469058</v>
+        <v>-0.1519007264873602</v>
       </c>
       <c r="C81">
-        <v>-0.09423731555304148</v>
+        <v>0.06809878632366159</v>
       </c>
       <c r="D81">
-        <v>0.02159647218192998</v>
+        <v>0.08001051481565051</v>
       </c>
       <c r="E81">
-        <v>0.05025337050539698</v>
+        <v>0.003490670709615431</v>
       </c>
       <c r="F81">
-        <v>-0.173868895162732</v>
+        <v>-0.09767836092611218</v>
       </c>
       <c r="G81">
-        <v>-0.02057761991928737</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1067867524671526</v>
+      </c>
+      <c r="H81">
+        <v>-0.06715482157439097</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0525094089704743</v>
+        <v>-0.03751181466854175</v>
       </c>
       <c r="C83">
-        <v>0.009124189832161152</v>
+        <v>0.007237934721347209</v>
       </c>
       <c r="D83">
-        <v>0.0396281181598279</v>
+        <v>0.02259196320891302</v>
       </c>
       <c r="E83">
-        <v>0.03261608481199493</v>
+        <v>-0.01179219181366052</v>
       </c>
       <c r="F83">
-        <v>0.06037712183131451</v>
+        <v>-0.01144234189301907</v>
       </c>
       <c r="G83">
-        <v>-0.05049668794332574</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05761146016934928</v>
+      </c>
+      <c r="H83">
+        <v>0.01370972807166015</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.232655664459897</v>
+        <v>-0.2143862410732332</v>
       </c>
       <c r="C85">
-        <v>-0.119089423276476</v>
+        <v>0.08581318344434923</v>
       </c>
       <c r="D85">
-        <v>0.04442211645590415</v>
+        <v>0.1348367526053955</v>
       </c>
       <c r="E85">
-        <v>0.04358952157530589</v>
+        <v>-0.01054819396371627</v>
       </c>
       <c r="F85">
-        <v>-0.1936808888364028</v>
+        <v>-0.1366508629234955</v>
       </c>
       <c r="G85">
-        <v>-0.0735581427529353</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1709323352472449</v>
+      </c>
+      <c r="H85">
+        <v>-0.05874754649125255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0001349675580509548</v>
+        <v>-0.01710764292336029</v>
       </c>
       <c r="C86">
-        <v>0.008733550613112252</v>
+        <v>-0.0007779213008465475</v>
       </c>
       <c r="D86">
-        <v>0.004262234210537062</v>
+        <v>0.005601148025774176</v>
       </c>
       <c r="E86">
-        <v>0.04349928259886939</v>
+        <v>-0.009968097567917973</v>
       </c>
       <c r="F86">
-        <v>0.07133239631564085</v>
+        <v>0.002030430654720651</v>
       </c>
       <c r="G86">
-        <v>-0.02490481142133615</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.08774470368586541</v>
+      </c>
+      <c r="H86">
+        <v>0.03674639224766598</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03162694156028247</v>
+        <v>-0.02912787573464462</v>
       </c>
       <c r="C87">
-        <v>-0.009185812895012838</v>
+        <v>0.003533729993394064</v>
       </c>
       <c r="D87">
-        <v>0.01430431834268836</v>
+        <v>0.02759512404098858</v>
       </c>
       <c r="E87">
-        <v>0.03545913947492587</v>
+        <v>-0.0006946061614603205</v>
       </c>
       <c r="F87">
-        <v>0.0832550052861773</v>
+        <v>-0.0250716600430042</v>
       </c>
       <c r="G87">
-        <v>-0.003093653841187963</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.09490006988660948</v>
+      </c>
+      <c r="H87">
+        <v>0.02579238443464141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.00935028685672324</v>
+        <v>-0.03558753968239715</v>
       </c>
       <c r="C88">
-        <v>-0.01446197096311485</v>
+        <v>-0.01068228079935126</v>
       </c>
       <c r="D88">
-        <v>-0.02403425081007592</v>
+        <v>-0.0007789217392554883</v>
       </c>
       <c r="E88">
-        <v>-0.006326101978968744</v>
+        <v>0.008757249585504891</v>
       </c>
       <c r="F88">
-        <v>0.0355376384940109</v>
+        <v>-0.01344531629246557</v>
       </c>
       <c r="G88">
-        <v>-0.06761706803806407</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.003941946142193072</v>
+      </c>
+      <c r="H88">
+        <v>0.01019253581266524</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1239461202886947</v>
+        <v>-0.2347630165559682</v>
       </c>
       <c r="C89">
-        <v>-0.08957233716847424</v>
+        <v>0.0460297847809718</v>
       </c>
       <c r="D89">
-        <v>-0.03749571883320651</v>
+        <v>-0.3283649968880066</v>
       </c>
       <c r="E89">
-        <v>-0.2934551662114986</v>
+        <v>-0.08067193202256913</v>
       </c>
       <c r="F89">
-        <v>0.150930049073178</v>
+        <v>0.1433209435388022</v>
       </c>
       <c r="G89">
-        <v>0.02312184536636522</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.001173847078382736</v>
+      </c>
+      <c r="H89">
+        <v>-0.03107346236369696</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.109948137680935</v>
+        <v>-0.184845286721251</v>
       </c>
       <c r="C90">
-        <v>-0.08727736198348608</v>
+        <v>0.03679030630975828</v>
       </c>
       <c r="D90">
-        <v>-0.08412466101289585</v>
+        <v>-0.2825662987965287</v>
       </c>
       <c r="E90">
-        <v>-0.2869351885025245</v>
+        <v>-0.05295073038167232</v>
       </c>
       <c r="F90">
-        <v>0.1078944544409593</v>
+        <v>0.1383694708218663</v>
       </c>
       <c r="G90">
-        <v>0.04472343319502826</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.03730850506062996</v>
+      </c>
+      <c r="H90">
+        <v>-0.04638618197344693</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2871609465942965</v>
+        <v>-0.2380278192182547</v>
       </c>
       <c r="C91">
-        <v>-0.1058459104752734</v>
+        <v>0.1058058157166186</v>
       </c>
       <c r="D91">
-        <v>0.05792168450108053</v>
+        <v>0.128965546503385</v>
       </c>
       <c r="E91">
-        <v>0.02683109004714698</v>
+        <v>-0.01101125763237107</v>
       </c>
       <c r="F91">
-        <v>-0.2629970761751015</v>
+        <v>-0.1383114231822735</v>
       </c>
       <c r="G91">
-        <v>-0.02978476618722767</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2077639785855279</v>
+      </c>
+      <c r="H91">
+        <v>-0.1215957169225038</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1887727465748397</v>
+        <v>-0.239247358740625</v>
       </c>
       <c r="C92">
-        <v>-0.08911582480797381</v>
+        <v>0.09939550377057274</v>
       </c>
       <c r="D92">
-        <v>-0.1181027096451544</v>
+        <v>-0.230076117771725</v>
       </c>
       <c r="E92">
-        <v>-0.4541229755678537</v>
+        <v>-0.03427588478460083</v>
       </c>
       <c r="F92">
-        <v>0.06165772400269255</v>
+        <v>0.1164754369660593</v>
       </c>
       <c r="G92">
-        <v>-0.5116862235157383</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04729256233827233</v>
+      </c>
+      <c r="H92">
+        <v>-0.1350934669714576</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1207206023277762</v>
+        <v>-0.2082442526373363</v>
       </c>
       <c r="C93">
-        <v>-0.06628481564537482</v>
+        <v>0.04742664003726424</v>
       </c>
       <c r="D93">
-        <v>-0.1021341470327458</v>
+        <v>-0.3002462012192392</v>
       </c>
       <c r="E93">
-        <v>-0.3992268671055204</v>
+        <v>-0.06660771976700007</v>
       </c>
       <c r="F93">
-        <v>0.07782779861939534</v>
+        <v>0.1762709114186116</v>
       </c>
       <c r="G93">
-        <v>0.1097875841416908</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04933036883478875</v>
+      </c>
+      <c r="H93">
+        <v>0.01325541114145783</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2639821456532127</v>
+        <v>-0.2543904135484328</v>
       </c>
       <c r="C94">
-        <v>-0.1455122511236</v>
+        <v>0.09362362190186205</v>
       </c>
       <c r="D94">
-        <v>0.02957989176749169</v>
+        <v>0.1126470858096348</v>
       </c>
       <c r="E94">
-        <v>0.03198946572880319</v>
+        <v>-0.02910298793100504</v>
       </c>
       <c r="F94">
-        <v>-0.304042356205048</v>
+        <v>-0.1608556824682026</v>
       </c>
       <c r="G94">
-        <v>0.03028267368877419</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.216692573992725</v>
+      </c>
+      <c r="H94">
+        <v>-0.1347665179634835</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07773575731605996</v>
+        <v>-0.06739062982147244</v>
       </c>
       <c r="C95">
-        <v>-0.007605474360995883</v>
+        <v>0.0332895639912288</v>
       </c>
       <c r="D95">
-        <v>0.07005041693225164</v>
+        <v>0.08455748775460571</v>
       </c>
       <c r="E95">
-        <v>0.08192686298135154</v>
+        <v>-0.06949621581731708</v>
       </c>
       <c r="F95">
-        <v>0.02857263508207902</v>
+        <v>-0.02565347299318188</v>
       </c>
       <c r="G95">
-        <v>-0.2398496078253563</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.0581669725865482</v>
+      </c>
+      <c r="H95">
+        <v>0.001350675672838221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1883985093084949</v>
+        <v>-0.1808405908695975</v>
       </c>
       <c r="C98">
-        <v>-0.04530188181606232</v>
+        <v>0.07154762685498117</v>
       </c>
       <c r="D98">
-        <v>0.05461189832961</v>
+        <v>0.03964469367244833</v>
       </c>
       <c r="E98">
-        <v>-0.0238022692359711</v>
+        <v>-0.05222137117004586</v>
       </c>
       <c r="F98">
-        <v>0.08477418440092349</v>
+        <v>-0.03104675395262677</v>
       </c>
       <c r="G98">
-        <v>0.317631769865713</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1556142526683826</v>
+      </c>
+      <c r="H98">
+        <v>0.3648398452975626</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.002756481710517711</v>
+        <v>-0.01508154173507073</v>
       </c>
       <c r="C101">
-        <v>-0.02364521742567347</v>
+        <v>0.0003423423403158552</v>
       </c>
       <c r="D101">
-        <v>0.0137539439128602</v>
+        <v>0.005380930994613799</v>
       </c>
       <c r="E101">
-        <v>0.1252489465717544</v>
+        <v>0.005556528996719925</v>
       </c>
       <c r="F101">
-        <v>0.1315152204822347</v>
+        <v>-0.03268860723073727</v>
       </c>
       <c r="G101">
-        <v>-0.1192270518928682</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1001878598455885</v>
+      </c>
+      <c r="H101">
+        <v>-0.0742075267690858</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09541144734039944</v>
+        <v>-0.1035610566985509</v>
       </c>
       <c r="C102">
-        <v>-0.03282074619534528</v>
+        <v>0.03381072750813781</v>
       </c>
       <c r="D102">
-        <v>0.01299311406863306</v>
+        <v>0.06901920673080844</v>
       </c>
       <c r="E102">
-        <v>0.05541628826402707</v>
+        <v>0.003123839341396917</v>
       </c>
       <c r="F102">
-        <v>-0.138342917890122</v>
+        <v>-0.06840965697780953</v>
       </c>
       <c r="G102">
-        <v>-0.07037428242890778</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.0972424738153716</v>
+      </c>
+      <c r="H102">
+        <v>-0.05333565232734398</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02483287977218148</v>
+        <v>-0.020655141240248</v>
       </c>
       <c r="C103">
-        <v>-0.01371043900589501</v>
+        <v>0.007982370433144825</v>
       </c>
       <c r="D103">
-        <v>0.01188111418465377</v>
+        <v>0.01392712322131107</v>
       </c>
       <c r="E103">
-        <v>0.004802657637853654</v>
+        <v>0.006418213956959967</v>
       </c>
       <c r="F103">
-        <v>-0.01100873442937596</v>
+        <v>-0.01844585171161375</v>
       </c>
       <c r="G103">
-        <v>-0.02383234706634265</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.006684904480673299</v>
+      </c>
+      <c r="H103">
+        <v>-0.0105831095812918</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2832900061709154</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9388624898991257</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.04652369681253191</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.0253603474972935</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.156008019387288</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.03894147153926569</v>
+      </c>
+      <c r="H104">
+        <v>-0.03067884835243735</v>
       </c>
     </row>
   </sheetData>
